--- a/biology/Botanique/Mammillaria_dioica/Mammillaria_dioica.xlsx
+++ b/biology/Botanique/Mammillaria_dioica/Mammillaria_dioica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mammillaria dioica, appelé communément cactus framboise[réf. nécessaire], est une espèce de cactus du genre Mammillaria présente aux États-Unis et au Mexique. C'est une sous-espèce d'angelensis[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mammillaria dioica, appelé communément cactus framboise[réf. nécessaire], est une espèce de cactus du genre Mammillaria présente aux États-Unis et au Mexique. C'est une sous-espèce d'angelensis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus croît seul ou en groupe. Il est de forme cylindrique d'un vert bleuté et peut mesurer jusqu'à trente-trois centimètres de hauteur et de trois à sept centimètres de diamètre. Ses axilles comportent de quatre à quinze épines longues. Les épines du milieu (d'une à quatre) sont brunes ou brun foncé, droites et fortes.
 Les fleurs mesurent de un à trois centimètres de longueur. Elles vont du jaune au blanc jaunâtre. Ce cactus qui fleurit au printemps est dioïque comme son nom l'indique. Il donne des fruits ovales et écarlates à l'automne dont la saveur varie entre la fraise et le kiwi. Ses graines (entre 0,6 et 0,8 mm) sont noires.
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans le sud de la Californie aux États-Unis et dans les États de Sonora, de Basse-Californie et de Basse-Californie du Sud au Mexique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans le sud de la Californie aux États-Unis et dans les États de Sonora, de Basse-Californie et de Basse-Californie du Sud au Mexique.
 Zone montagneuse désertique et rocheuse à 1 500 mètres d'altitude.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La culture de ce cactus nécessite une certaine expérience. Son sol doit être bien drainé. Il ne supporte pas l'humidité.
 </t>
@@ -606,7 +624,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ebnerella dioica
 Chilita dioica
